--- a/xlsx_origin/140冷排换扇.xlsx
+++ b/xlsx_origin/140冷排换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_\Syncthing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D3CDB-059D-4954-8AA5-D181BC750D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1204EF-8614-45FD-9F4D-050E007AD6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10200" yWindow="6705" windowWidth="21600" windowHeight="11715" xr2:uid="{1AE1343D-633F-4BFB-85BD-E1B963419C9C}"/>
   </bookViews>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SWP4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风尊T30-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢影14Pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C84FE3B-A5EB-40AE-8A03-08695EEAA39D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +453,13 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
@@ -471,14 +480,24 @@
       <c r="F2">
         <v>1932</v>
       </c>
+      <c r="G2">
+        <v>43.5</v>
+      </c>
+      <c r="H2">
+        <f>74-21.31</f>
+        <v>52.69</v>
+      </c>
+      <c r="I2">
+        <v>1877</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
       <c r="B3">
-        <f>75.9-21.58</f>
-        <v>54.320000000000007</v>
+        <f>77-21.22</f>
+        <v>55.78</v>
       </c>
       <c r="C3">
         <v>1676</v>
@@ -493,11 +512,22 @@
       <c r="F3">
         <v>1493</v>
       </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <f>76.5-21.26</f>
+        <v>55.239999999999995</v>
+      </c>
+      <c r="I3">
+        <v>1385</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx_origin/140冷排换扇.xlsx
+++ b/xlsx_origin/140冷排换扇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_\Syncthing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1204EF-8614-45FD-9F4D-050E007AD6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A278D6-BAF7-4A69-9320-894516316854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="6705" windowWidth="21600" windowHeight="11715" xr2:uid="{1AE1343D-633F-4BFB-85BD-E1B963419C9C}"/>
+    <workbookView xWindow="7545" yWindow="6690" windowWidth="21600" windowHeight="11625" xr2:uid="{1AE1343D-633F-4BFB-85BD-E1B963419C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SWP4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>钢影14Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP14E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACH140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14x25G2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C84FE3B-A5EB-40AE-8A03-08695EEAA39D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +478,33 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
@@ -490,8 +535,58 @@
       <c r="I2">
         <v>1877</v>
       </c>
+      <c r="J2">
+        <v>48.5</v>
+      </c>
+      <c r="K2">
+        <f>72-21.46</f>
+        <v>50.54</v>
+      </c>
+      <c r="L2">
+        <v>2683</v>
+      </c>
+      <c r="M2">
+        <v>50.7</v>
+      </c>
+      <c r="N2">
+        <f>72.5-21.58</f>
+        <v>50.92</v>
+      </c>
+      <c r="O2">
+        <v>2493</v>
+      </c>
+      <c r="P2">
+        <v>48</v>
+      </c>
+      <c r="Q2">
+        <f>73.15-21.56</f>
+        <v>51.59</v>
+      </c>
+      <c r="R2">
+        <v>2200</v>
+      </c>
+      <c r="S2">
+        <v>47.8</v>
+      </c>
+      <c r="T2">
+        <f>73.3-21.57</f>
+        <v>51.73</v>
+      </c>
+      <c r="U2">
+        <v>2407</v>
+      </c>
+      <c r="V2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="W2">
+        <f>75.5-21.62</f>
+        <v>53.879999999999995</v>
+      </c>
+      <c r="X2">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>38</v>
       </c>
@@ -522,12 +617,67 @@
       <c r="I3">
         <v>1385</v>
       </c>
+      <c r="J3">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <f>74.8-21.42</f>
+        <v>53.379999999999995</v>
+      </c>
+      <c r="L3">
+        <v>1647</v>
+      </c>
+      <c r="M3">
+        <v>38</v>
+      </c>
+      <c r="N3">
+        <f>75.8-21.52</f>
+        <v>54.28</v>
+      </c>
+      <c r="O3">
+        <v>1428</v>
+      </c>
+      <c r="P3">
+        <v>38.1</v>
+      </c>
+      <c r="Q3">
+        <f>76.9-21.57</f>
+        <v>55.330000000000005</v>
+      </c>
+      <c r="R3">
+        <v>1383</v>
+      </c>
+      <c r="S3">
+        <v>38</v>
+      </c>
+      <c r="T3">
+        <f>76.6-21.59</f>
+        <v>55.009999999999991</v>
+      </c>
+      <c r="U3">
+        <v>1464</v>
+      </c>
+      <c r="V3">
+        <v>38</v>
+      </c>
+      <c r="W3">
+        <f>76.9-21.63</f>
+        <v>55.27000000000001</v>
+      </c>
+      <c r="X3">
+        <v>1307</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx_origin/140冷排换扇.xlsx
+++ b/xlsx_origin/140冷排换扇.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_\Syncthing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx_origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A278D6-BAF7-4A69-9320-894516316854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B68CD5-0F83-854F-8E18-17E48E91A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="6690" windowWidth="21600" windowHeight="11625" xr2:uid="{1AE1343D-633F-4BFB-85BD-E1B963419C9C}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="18060" xr2:uid="{1AE1343D-633F-4BFB-85BD-E1B963419C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SWP4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +66,18 @@
   </si>
   <si>
     <t>A14x25G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H14PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9LG1412M5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA14038</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C84FE3B-A5EB-40AE-8A03-08695EEAA39D}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,32 +490,47 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>44</v>
       </c>
@@ -536,57 +562,87 @@
         <v>1877</v>
       </c>
       <c r="J2">
-        <v>48.5</v>
+        <v>50.7</v>
       </c>
       <c r="K2">
-        <f>72-21.46</f>
-        <v>50.54</v>
-      </c>
-      <c r="L2">
-        <v>2683</v>
-      </c>
-      <c r="M2">
-        <v>50.7</v>
-      </c>
-      <c r="N2">
         <f>72.5-21.58</f>
         <v>50.92</v>
       </c>
-      <c r="O2">
+      <c r="L2">
         <v>2493</v>
       </c>
-      <c r="P2">
+      <c r="M2">
         <v>48</v>
       </c>
-      <c r="Q2">
+      <c r="N2">
         <f>73.15-21.56</f>
         <v>51.59</v>
       </c>
-      <c r="R2">
+      <c r="O2">
         <v>2200</v>
       </c>
-      <c r="S2">
+      <c r="P2">
         <v>47.8</v>
       </c>
-      <c r="T2">
+      <c r="Q2">
         <f>73.3-21.57</f>
         <v>51.73</v>
       </c>
-      <c r="U2">
+      <c r="R2">
         <v>2407</v>
       </c>
-      <c r="V2">
+      <c r="S2">
         <v>40.200000000000003</v>
       </c>
-      <c r="W2">
+      <c r="T2">
         <f>75.5-21.62</f>
         <v>53.879999999999995</v>
       </c>
+      <c r="U2">
+        <v>1501</v>
+      </c>
+      <c r="V2">
+        <v>58.6</v>
+      </c>
+      <c r="W2">
+        <f>70.3-18.94</f>
+        <v>51.36</v>
+      </c>
       <c r="X2">
-        <v>1501</v>
+        <v>3000</v>
+      </c>
+      <c r="Y2">
+        <v>50.6</v>
+      </c>
+      <c r="Z2">
+        <f>70.1-19.41</f>
+        <v>50.69</v>
+      </c>
+      <c r="AA2">
+        <v>2577</v>
+      </c>
+      <c r="AB2">
+        <v>57.6</v>
+      </c>
+      <c r="AC2">
+        <f>69.1-19.94</f>
+        <v>49.16</v>
+      </c>
+      <c r="AD2">
+        <v>3731</v>
+      </c>
+      <c r="AE2">
+        <v>48.5</v>
+      </c>
+      <c r="AF2">
+        <f>72-21.46-0.3</f>
+        <v>50.24</v>
+      </c>
+      <c r="AG2">
+        <v>2683</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>38</v>
       </c>
@@ -621,63 +677,108 @@
         <v>38</v>
       </c>
       <c r="K3">
-        <f>74.8-21.42</f>
-        <v>53.379999999999995</v>
-      </c>
-      <c r="L3">
-        <v>1647</v>
-      </c>
-      <c r="M3">
-        <v>38</v>
-      </c>
-      <c r="N3">
         <f>75.8-21.52</f>
         <v>54.28</v>
       </c>
-      <c r="O3">
+      <c r="L3">
         <v>1428</v>
       </c>
-      <c r="P3">
+      <c r="M3">
         <v>38.1</v>
       </c>
-      <c r="Q3">
+      <c r="N3">
         <f>76.9-21.57</f>
         <v>55.330000000000005</v>
       </c>
-      <c r="R3">
+      <c r="O3">
         <v>1383</v>
       </c>
-      <c r="S3">
-        <v>38</v>
-      </c>
-      <c r="T3">
+      <c r="P3">
+        <v>38</v>
+      </c>
+      <c r="Q3">
         <f>76.6-21.59</f>
         <v>55.009999999999991</v>
       </c>
-      <c r="U3">
+      <c r="R3">
         <v>1464</v>
       </c>
-      <c r="V3">
-        <v>38</v>
-      </c>
-      <c r="W3">
+      <c r="S3">
+        <v>38</v>
+      </c>
+      <c r="T3">
         <f>76.9-21.63</f>
         <v>55.27000000000001</v>
       </c>
+      <c r="U3">
+        <v>1307</v>
+      </c>
+      <c r="V3">
+        <v>45</v>
+      </c>
+      <c r="W3">
+        <f>73.2-19</f>
+        <v>54.2</v>
+      </c>
       <c r="X3">
-        <v>1307</v>
+        <v>1835</v>
+      </c>
+      <c r="AB3">
+        <v>45.1</v>
+      </c>
+      <c r="AC3">
+        <f>70.8-19.85</f>
+        <v>50.949999999999996</v>
+      </c>
+      <c r="AD3">
+        <v>2279</v>
+      </c>
+      <c r="AE3">
+        <v>38</v>
+      </c>
+      <c r="AF3">
+        <f>74.8-21.42-0.3</f>
+        <v>53.08</v>
+      </c>
+      <c r="AG3">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="V4">
+        <v>38</v>
+      </c>
+      <c r="W4">
+        <f>76-19.07</f>
+        <v>56.93</v>
+      </c>
+      <c r="X4">
+        <v>1377</v>
+      </c>
+      <c r="AB4">
+        <v>38</v>
+      </c>
+      <c r="AC4">
+        <f>72.6-19.77</f>
+        <v>52.83</v>
+      </c>
+      <c r="AD4">
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
+  <mergeCells count="11">
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
